--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44516</v>
       </c>
       <c r="B2" t="n">
-        <v>16.7529125701694</v>
+        <v>8.098338807319569</v>
       </c>
       <c r="C2" t="n">
-        <v>-44.59064657381704</v>
+        <v>-51.74245992441276</v>
       </c>
       <c r="D2" t="n">
-        <v>71.35673520638035</v>
+        <v>68.70231911066702</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -496,13 +496,13 @@
         <v>44523</v>
       </c>
       <c r="B3" t="n">
-        <v>63.94357847961498</v>
+        <v>65.0118932003305</v>
       </c>
       <c r="C3" t="n">
-        <v>9.925865535034058</v>
+        <v>6.428773431959025</v>
       </c>
       <c r="D3" t="n">
-        <v>119.8274072803504</v>
+        <v>127.1744265274108</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>44544</v>
       </c>
       <c r="B4" t="n">
-        <v>30.40429276475417</v>
+        <v>29.98855783393677</v>
       </c>
       <c r="C4" t="n">
-        <v>-26.81880169164595</v>
+        <v>-27.90204836562352</v>
       </c>
       <c r="D4" t="n">
-        <v>84.46655127805815</v>
+        <v>84.2544172971547</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -536,13 +536,13 @@
         <v>44551</v>
       </c>
       <c r="B5" t="n">
-        <v>6.07906011159363</v>
+        <v>3.448026570450936</v>
       </c>
       <c r="C5" t="n">
-        <v>-52.78997576693963</v>
+        <v>-58.59869961288761</v>
       </c>
       <c r="D5" t="n">
-        <v>62.97451039950989</v>
+        <v>59.20278255555505</v>
       </c>
       <c r="E5" t="n">
         <v>80</v>
@@ -556,13 +556,13 @@
         <v>44558</v>
       </c>
       <c r="B6" t="n">
-        <v>18.39119663882182</v>
+        <v>20.78862927934618</v>
       </c>
       <c r="C6" t="n">
-        <v>-40.33377642284859</v>
+        <v>-40.59465853848633</v>
       </c>
       <c r="D6" t="n">
-        <v>78.52018369389894</v>
+        <v>85.2453689351449</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44565</v>
       </c>
       <c r="B7" t="n">
-        <v>26.66490475540866</v>
+        <v>22.85299625936605</v>
       </c>
       <c r="C7" t="n">
-        <v>-32.46426725543145</v>
+        <v>-41.49880811474575</v>
       </c>
       <c r="D7" t="n">
-        <v>87.71384735017797</v>
+        <v>86.11476588160693</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>44582</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.09597558199273</v>
+        <v>-19.01130662347427</v>
       </c>
       <c r="C8" t="n">
-        <v>-73.62211334064442</v>
+        <v>-79.55373786665554</v>
       </c>
       <c r="D8" t="n">
-        <v>41.27752244797745</v>
+        <v>43.2104829142947</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44586</v>
       </c>
       <c r="B9" t="n">
-        <v>12.55076471136507</v>
+        <v>11.94895854083257</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.9489083608344</v>
+        <v>-45.53493167199683</v>
       </c>
       <c r="D9" t="n">
-        <v>74.40535595920451</v>
+        <v>73.43883619789786</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -636,13 +636,13 @@
         <v>44592</v>
       </c>
       <c r="B10" t="n">
-        <v>-35.28618582179126</v>
+        <v>-30.95915083290362</v>
       </c>
       <c r="C10" t="n">
-        <v>-98.37563425536621</v>
+        <v>-89.11219072083864</v>
       </c>
       <c r="D10" t="n">
-        <v>26.53760703380315</v>
+        <v>27.33828775362775</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44600</v>
       </c>
       <c r="B11" t="n">
-        <v>59.79770375357409</v>
+        <v>57.87222219356465</v>
       </c>
       <c r="C11" t="n">
-        <v>3.163617210099248</v>
+        <v>-1.958536438759705</v>
       </c>
       <c r="D11" t="n">
-        <v>119.5257091145809</v>
+        <v>113.3934804578677</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44607</v>
       </c>
       <c r="B12" t="n">
-        <v>52.42777180181503</v>
+        <v>49.89620142627872</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.84499439449172</v>
+        <v>-9.352641834163329</v>
       </c>
       <c r="D12" t="n">
-        <v>112.6480116280791</v>
+        <v>107.8782274376532</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44614</v>
       </c>
       <c r="B13" t="n">
-        <v>37.93721021598148</v>
+        <v>34.74703009788457</v>
       </c>
       <c r="C13" t="n">
-        <v>-18.6887258880468</v>
+        <v>-25.88629116634045</v>
       </c>
       <c r="D13" t="n">
-        <v>97.23576642294435</v>
+        <v>94.07587630489894</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -716,13 +716,13 @@
         <v>44620</v>
       </c>
       <c r="B14" t="n">
-        <v>-15.5711359332359</v>
+        <v>-16.86374740096114</v>
       </c>
       <c r="C14" t="n">
-        <v>-75.82167236102788</v>
+        <v>-82.8846186563573</v>
       </c>
       <c r="D14" t="n">
-        <v>38.37817390080276</v>
+        <v>34.8028886782871</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>44624</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4740941534038</v>
+        <v>12.2687920816875</v>
       </c>
       <c r="C15" t="n">
-        <v>-39.86041100805472</v>
+        <v>-45.84467224616597</v>
       </c>
       <c r="D15" t="n">
-        <v>72.92627999898221</v>
+        <v>69.11787711778874</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -756,13 +756,13 @@
         <v>44628</v>
       </c>
       <c r="B16" t="n">
-        <v>45.94569897255081</v>
+        <v>45.56216433132393</v>
       </c>
       <c r="C16" t="n">
-        <v>-10.38363616688151</v>
+        <v>-14.18196431043092</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4221496752553</v>
+        <v>102.9365955975663</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44635</v>
       </c>
       <c r="B17" t="n">
-        <v>59.36480098374968</v>
+        <v>57.12256691876688</v>
       </c>
       <c r="C17" t="n">
-        <v>2.841996041130375</v>
+        <v>-1.797130307383678</v>
       </c>
       <c r="D17" t="n">
-        <v>117.88066256619</v>
+        <v>113.0937506376397</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -796,13 +796,13 @@
         <v>44642</v>
       </c>
       <c r="B18" t="n">
-        <v>65.91493909571489</v>
+        <v>61.16845172419431</v>
       </c>
       <c r="C18" t="n">
-        <v>5.219609492569151</v>
+        <v>3.212079472957329</v>
       </c>
       <c r="D18" t="n">
-        <v>122.5634835633663</v>
+        <v>121.7968108910038</v>
       </c>
       <c r="E18" t="n">
         <v>70</v>
@@ -816,13 +816,13 @@
         <v>44649</v>
       </c>
       <c r="B19" t="n">
-        <v>59.14032084578921</v>
+        <v>57.88967556842268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9221483741019145</v>
+        <v>5.230150905862139</v>
       </c>
       <c r="D19" t="n">
-        <v>115.3925863059391</v>
+        <v>122.3357529789707</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -836,13 +836,13 @@
         <v>44656</v>
       </c>
       <c r="B20" t="n">
-        <v>43.53672421080415</v>
+        <v>46.27967005190909</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.03752613084773</v>
+        <v>-15.98888594740336</v>
       </c>
       <c r="D20" t="n">
-        <v>96.95192945263827</v>
+        <v>107.6761211670589</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -856,13 +856,13 @@
         <v>44663</v>
       </c>
       <c r="B21" t="n">
-        <v>47.65524223309553</v>
+        <v>49.95687405296555</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.713140580864545</v>
+        <v>-5.972104734419817</v>
       </c>
       <c r="D21" t="n">
-        <v>102.6108253619553</v>
+        <v>110.7277019970737</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44670</v>
       </c>
       <c r="B22" t="n">
-        <v>83.91276430858339</v>
+        <v>74.39685712447451</v>
       </c>
       <c r="C22" t="n">
-        <v>25.46669973910144</v>
+        <v>11.37504158200361</v>
       </c>
       <c r="D22" t="n">
-        <v>141.6908623545764</v>
+        <v>132.5720151261787</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>44698</v>
       </c>
       <c r="B23" t="n">
-        <v>36.76083977332812</v>
+        <v>44.54149175054287</v>
       </c>
       <c r="C23" t="n">
-        <v>-18.9968169432953</v>
+        <v>-15.75946172671856</v>
       </c>
       <c r="D23" t="n">
-        <v>94.79487449339766</v>
+        <v>103.9270815941713</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44708</v>
       </c>
       <c r="B24" t="n">
-        <v>1.765348770993817</v>
+        <v>29.83346159329694</v>
       </c>
       <c r="C24" t="n">
-        <v>-53.26381970172408</v>
+        <v>-27.10414142109695</v>
       </c>
       <c r="D24" t="n">
-        <v>60.89829808802624</v>
+        <v>87.47412179029031</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44719</v>
       </c>
       <c r="B25" t="n">
-        <v>42.50646921452693</v>
+        <v>56.62909318574807</v>
       </c>
       <c r="C25" t="n">
-        <v>-17.36623890400184</v>
+        <v>-5.103381665629048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.19493112513788</v>
+        <v>110.984500944593</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44726</v>
       </c>
       <c r="B26" t="n">
-        <v>43.09968601191785</v>
+        <v>40.30158547162295</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.84023772339105</v>
+        <v>-18.75759282964312</v>
       </c>
       <c r="D26" t="n">
-        <v>98.04246618113901</v>
+        <v>98.1510299176135</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44743</v>
       </c>
       <c r="B27" t="n">
-        <v>-25.02660266614827</v>
+        <v>-30.71348609802776</v>
       </c>
       <c r="C27" t="n">
-        <v>-80.31089212792838</v>
+        <v>-85.4667470688902</v>
       </c>
       <c r="D27" t="n">
-        <v>31.83873073041609</v>
+        <v>31.44942908022998</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -996,13 +996,13 @@
         <v>44747</v>
       </c>
       <c r="B28" t="n">
-        <v>-17.23636021174406</v>
+        <v>-17.04427021402526</v>
       </c>
       <c r="C28" t="n">
-        <v>-70.46799099987005</v>
+        <v>-74.60951672303786</v>
       </c>
       <c r="D28" t="n">
-        <v>39.57946832943196</v>
+        <v>41.79236261474566</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44761</v>
       </c>
       <c r="B29" t="n">
-        <v>-15.68069249554893</v>
+        <v>-15.75541482370595</v>
       </c>
       <c r="C29" t="n">
-        <v>-75.62692535847161</v>
+        <v>-76.45013275469377</v>
       </c>
       <c r="D29" t="n">
-        <v>39.87446498734956</v>
+        <v>42.05110324767543</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44768</v>
       </c>
       <c r="B30" t="n">
-        <v>10.00278117155505</v>
+        <v>5.611274730534284</v>
       </c>
       <c r="C30" t="n">
-        <v>-47.52794807245208</v>
+        <v>-58.44902899660484</v>
       </c>
       <c r="D30" t="n">
-        <v>71.14993011704067</v>
+        <v>64.35696963643811</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44799</v>
       </c>
       <c r="B31" t="n">
-        <v>12.93409100794985</v>
+        <v>7.893777942536241</v>
       </c>
       <c r="C31" t="n">
-        <v>-35.36401624689353</v>
+        <v>-48.40910740592055</v>
       </c>
       <c r="D31" t="n">
-        <v>69.43871367257886</v>
+        <v>64.55656960186147</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44803</v>
       </c>
       <c r="B32" t="n">
-        <v>39.43715458123978</v>
+        <v>36.92519738431632</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.5993796607015</v>
+        <v>-21.01200710879026</v>
       </c>
       <c r="D32" t="n">
-        <v>94.65485567180393</v>
+        <v>93.06462244380816</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1096,13 +1096,13 @@
         <v>44806</v>
       </c>
       <c r="B33" t="n">
-        <v>18.53921070577269</v>
+        <v>17.05209798484657</v>
       </c>
       <c r="C33" t="n">
-        <v>-40.75975721300169</v>
+        <v>-42.90248586928186</v>
       </c>
       <c r="D33" t="n">
-        <v>80.08828576676194</v>
+        <v>75.13343827555447</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1116,13 +1116,13 @@
         <v>44810</v>
       </c>
       <c r="B34" t="n">
-        <v>41.30001129884724</v>
+        <v>41.65541925319938</v>
       </c>
       <c r="C34" t="n">
-        <v>-15.92794347221169</v>
+        <v>-14.58696726813887</v>
       </c>
       <c r="D34" t="n">
-        <v>98.17372404784153</v>
+        <v>105.4655634567694</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -1136,13 +1136,13 @@
         <v>44817</v>
       </c>
       <c r="B35" t="n">
-        <v>25.5628695694602</v>
+        <v>27.59820865331141</v>
       </c>
       <c r="C35" t="n">
-        <v>-31.12109433898259</v>
+        <v>-25.69212272873634</v>
       </c>
       <c r="D35" t="n">
-        <v>82.87424446170091</v>
+        <v>84.09037033900562</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44831</v>
       </c>
       <c r="B36" t="n">
-        <v>22.45211314976684</v>
+        <v>14.63220927942317</v>
       </c>
       <c r="C36" t="n">
-        <v>-35.36749822870549</v>
+        <v>-51.399210221956</v>
       </c>
       <c r="D36" t="n">
-        <v>78.73865512716668</v>
+        <v>73.23021903822016</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44838</v>
       </c>
       <c r="B37" t="n">
-        <v>51.03227648739751</v>
+        <v>47.03530531168612</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.713050435146813</v>
+        <v>-11.42145499457139</v>
       </c>
       <c r="D37" t="n">
-        <v>109.1291678132595</v>
+        <v>104.7827186799315</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1196,13 +1196,13 @@
         <v>44845</v>
       </c>
       <c r="B38" t="n">
-        <v>88.89107058258709</v>
+        <v>88.36594236092135</v>
       </c>
       <c r="C38" t="n">
-        <v>35.28698910812496</v>
+        <v>30.87125107420123</v>
       </c>
       <c r="D38" t="n">
-        <v>145.5483308387744</v>
+        <v>151.7179690699852</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44852</v>
       </c>
       <c r="B39" t="n">
-        <v>90.72396889545462</v>
+        <v>94.22643798204143</v>
       </c>
       <c r="C39" t="n">
-        <v>35.40354143617833</v>
+        <v>39.79920706381849</v>
       </c>
       <c r="D39" t="n">
-        <v>147.5298032564957</v>
+        <v>157.1749696448061</v>
       </c>
       <c r="E39" t="n">
         <v>40</v>
@@ -1236,13 +1236,13 @@
         <v>44862</v>
       </c>
       <c r="B40" t="n">
-        <v>15.23874996598223</v>
+        <v>13.42265992014354</v>
       </c>
       <c r="C40" t="n">
-        <v>-43.0202834584704</v>
+        <v>-44.42243265819305</v>
       </c>
       <c r="D40" t="n">
-        <v>70.40835414648859</v>
+        <v>70.65208081476449</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44865</v>
       </c>
       <c r="B41" t="n">
-        <v>-18.74487293019737</v>
+        <v>-20.22555968781606</v>
       </c>
       <c r="C41" t="n">
-        <v>-75.63858365649584</v>
+        <v>-81.14313312800145</v>
       </c>
       <c r="D41" t="n">
-        <v>33.37449342859396</v>
+        <v>35.32438525421737</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44873</v>
       </c>
       <c r="B42" t="n">
-        <v>-19.74069612135934</v>
+        <v>-20.65040715960776</v>
       </c>
       <c r="C42" t="n">
-        <v>-76.40031261222639</v>
+        <v>-76.20549770190755</v>
       </c>
       <c r="D42" t="n">
-        <v>34.53540660418933</v>
+        <v>36.0167413419943</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -1296,13 +1296,13 @@
         <v>44887</v>
       </c>
       <c r="B43" t="n">
-        <v>26.92640289134505</v>
+        <v>24.29155656944515</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.60450264683628</v>
+        <v>-29.82816858358897</v>
       </c>
       <c r="D43" t="n">
-        <v>85.08448404035987</v>
+        <v>81.72671077167767</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1377,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1190.110124904207</v>
+        <v>1319.75995924961</v>
       </c>
       <c r="C2" t="n">
-        <v>34.49797276513806</v>
+        <v>36.32850064686967</v>
       </c>
       <c r="D2" t="n">
-        <v>21.50619647289368</v>
+        <v>20.62971805127719</v>
       </c>
       <c r="E2" t="n">
-        <v>1.008150678199463</v>
+        <v>0.9128103401990775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8539210705772685</v>
+        <v>0.4916730796648469</v>
       </c>
       <c r="G2" t="n">
-        <v>1.053538716374135</v>
+        <v>0.806779253599185</v>
       </c>
       <c r="H2" t="n">
         <v>0.8571428571428571</v>
@@ -1403,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1431.705795078766</v>
+        <v>1387.960098931153</v>
       </c>
       <c r="C3" t="n">
-        <v>37.8378883538546</v>
+        <v>37.25533651614427</v>
       </c>
       <c r="D3" t="n">
-        <v>32.77709778952956</v>
+        <v>32.16954399323951</v>
       </c>
       <c r="E3" t="n">
-        <v>2.301015213908088</v>
+        <v>2.292424647680495</v>
       </c>
       <c r="F3" t="n">
-        <v>2.660711442206576</v>
+        <v>2.617166140870648</v>
       </c>
       <c r="G3" t="n">
-        <v>1.763384679093534</v>
+        <v>1.701694813399796</v>
       </c>
       <c r="H3" t="n">
         <v>0.9642857142857142</v>
@@ -1429,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1734.294160883735</v>
+        <v>1697.608034048757</v>
       </c>
       <c r="C4" t="n">
-        <v>41.64485755629062</v>
+        <v>41.20203919769939</v>
       </c>
       <c r="D4" t="n">
-        <v>31.95117592194899</v>
+        <v>31.7697706860088</v>
       </c>
       <c r="E4" t="n">
-        <v>1.842684660546862</v>
+        <v>1.813409336614498</v>
       </c>
       <c r="F4" t="n">
-        <v>1.256655268681525</v>
+        <v>1.121099646902984</v>
       </c>
       <c r="G4" t="n">
-        <v>0.91780768025159</v>
+        <v>0.9359663910651097</v>
       </c>
       <c r="H4" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44516</v>
       </c>
       <c r="B2" t="n">
-        <v>8.098338807319569</v>
+        <v>8.088107477352956</v>
       </c>
       <c r="C2" t="n">
-        <v>-51.74245992441276</v>
+        <v>-48.73115503604208</v>
       </c>
       <c r="D2" t="n">
-        <v>68.70231911066702</v>
+        <v>68.89649680012933</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -496,13 +496,13 @@
         <v>44523</v>
       </c>
       <c r="B3" t="n">
-        <v>65.0118932003305</v>
+        <v>65.01188752719366</v>
       </c>
       <c r="C3" t="n">
-        <v>6.428773431959025</v>
+        <v>7.347295071737465</v>
       </c>
       <c r="D3" t="n">
-        <v>127.1744265274108</v>
+        <v>121.8116009115723</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>44544</v>
       </c>
       <c r="B4" t="n">
-        <v>29.98855783393677</v>
+        <v>29.75447839874816</v>
       </c>
       <c r="C4" t="n">
-        <v>-27.90204836562352</v>
+        <v>-30.83688517221573</v>
       </c>
       <c r="D4" t="n">
-        <v>84.2544172971547</v>
+        <v>89.55435849618496</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -536,13 +536,13 @@
         <v>44551</v>
       </c>
       <c r="B5" t="n">
-        <v>3.448026570450936</v>
+        <v>3.44861958845347</v>
       </c>
       <c r="C5" t="n">
-        <v>-58.59869961288761</v>
+        <v>-57.90901543064134</v>
       </c>
       <c r="D5" t="n">
-        <v>59.20278255555505</v>
+        <v>60.89835619950547</v>
       </c>
       <c r="E5" t="n">
         <v>80</v>
@@ -556,13 +556,13 @@
         <v>44558</v>
       </c>
       <c r="B6" t="n">
-        <v>20.78862927934618</v>
+        <v>20.21092901770413</v>
       </c>
       <c r="C6" t="n">
-        <v>-40.59465853848633</v>
+        <v>-40.65007236896773</v>
       </c>
       <c r="D6" t="n">
-        <v>85.2453689351449</v>
+        <v>83.09168566566328</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44565</v>
       </c>
       <c r="B7" t="n">
-        <v>22.85299625936605</v>
+        <v>22.85258604374901</v>
       </c>
       <c r="C7" t="n">
-        <v>-41.49880811474575</v>
+        <v>-40.04628858782455</v>
       </c>
       <c r="D7" t="n">
-        <v>86.11476588160693</v>
+        <v>82.1361308638286</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>44582</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.01130662347427</v>
+        <v>-19.01067818230452</v>
       </c>
       <c r="C8" t="n">
-        <v>-79.55373786665554</v>
+        <v>-76.29206058718086</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2104829142947</v>
+        <v>39.35335643592195</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44586</v>
       </c>
       <c r="B9" t="n">
-        <v>11.94895854083257</v>
+        <v>11.94242452312302</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.53493167199683</v>
+        <v>-47.85541430964442</v>
       </c>
       <c r="D9" t="n">
-        <v>73.43883619789786</v>
+        <v>74.28737588515641</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -636,13 +636,13 @@
         <v>44592</v>
       </c>
       <c r="B10" t="n">
-        <v>-30.95915083290362</v>
+        <v>-30.95915083338799</v>
       </c>
       <c r="C10" t="n">
-        <v>-89.11219072083864</v>
+        <v>-91.57659258676104</v>
       </c>
       <c r="D10" t="n">
-        <v>27.33828775362775</v>
+        <v>26.86915360506905</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44600</v>
       </c>
       <c r="B11" t="n">
-        <v>57.87222219356465</v>
+        <v>60.38193693100355</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.958536438759705</v>
+        <v>5.576062292419751</v>
       </c>
       <c r="D11" t="n">
-        <v>113.3934804578677</v>
+        <v>119.3266718047619</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44607</v>
       </c>
       <c r="B12" t="n">
-        <v>49.89620142627872</v>
+        <v>50.31097703514655</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.352641834163329</v>
+        <v>-8.333607747618018</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8782274376532</v>
+        <v>112.4321132177472</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44614</v>
       </c>
       <c r="B13" t="n">
-        <v>34.74703009788457</v>
+        <v>36.00887806629634</v>
       </c>
       <c r="C13" t="n">
-        <v>-25.88629116634045</v>
+        <v>-27.37891282733487</v>
       </c>
       <c r="D13" t="n">
-        <v>94.07587630489894</v>
+        <v>97.93933217532945</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -716,13 +716,13 @@
         <v>44620</v>
       </c>
       <c r="B14" t="n">
-        <v>-16.86374740096114</v>
+        <v>-16.88066078624098</v>
       </c>
       <c r="C14" t="n">
-        <v>-82.8846186563573</v>
+        <v>-73.80379397763949</v>
       </c>
       <c r="D14" t="n">
-        <v>34.8028886782871</v>
+        <v>40.33868340494067</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>44624</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2687920816875</v>
+        <v>12.26913606885217</v>
       </c>
       <c r="C15" t="n">
-        <v>-45.84467224616597</v>
+        <v>-47.33304646174572</v>
       </c>
       <c r="D15" t="n">
-        <v>69.11787711778874</v>
+        <v>69.91395766807179</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -756,13 +756,13 @@
         <v>44628</v>
       </c>
       <c r="B16" t="n">
-        <v>45.56216433132393</v>
+        <v>45.56245357665731</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.18196431043092</v>
+        <v>-9.93812321695107</v>
       </c>
       <c r="D16" t="n">
-        <v>102.9365955975663</v>
+        <v>104.6510973290188</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44635</v>
       </c>
       <c r="B17" t="n">
-        <v>57.12256691876688</v>
+        <v>57.12271039571289</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.797130307383678</v>
+        <v>2.842930502046029</v>
       </c>
       <c r="D17" t="n">
-        <v>113.0937506376397</v>
+        <v>115.6298940045295</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -796,13 +796,13 @@
         <v>44642</v>
       </c>
       <c r="B18" t="n">
-        <v>61.16845172419431</v>
+        <v>61.16245327399454</v>
       </c>
       <c r="C18" t="n">
-        <v>3.212079472957329</v>
+        <v>5.29584635657156</v>
       </c>
       <c r="D18" t="n">
-        <v>121.7968108910038</v>
+        <v>121.6936844514509</v>
       </c>
       <c r="E18" t="n">
         <v>70</v>
@@ -816,13 +816,13 @@
         <v>44649</v>
       </c>
       <c r="B19" t="n">
-        <v>57.88967556842268</v>
+        <v>57.58875804379598</v>
       </c>
       <c r="C19" t="n">
-        <v>5.230150905862139</v>
+        <v>-3.778171588294727</v>
       </c>
       <c r="D19" t="n">
-        <v>122.3357529789707</v>
+        <v>114.335104345688</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -836,13 +836,13 @@
         <v>44656</v>
       </c>
       <c r="B20" t="n">
-        <v>46.27967005190909</v>
+        <v>46.27930745447294</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.98888594740336</v>
+        <v>-14.78501360701486</v>
       </c>
       <c r="D20" t="n">
-        <v>107.6761211670589</v>
+        <v>103.7344052294932</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -856,13 +856,13 @@
         <v>44663</v>
       </c>
       <c r="B21" t="n">
-        <v>49.95687405296555</v>
+        <v>50.04188201012024</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.972104734419817</v>
+        <v>-7.356499678944764</v>
       </c>
       <c r="D21" t="n">
-        <v>110.7277019970737</v>
+        <v>108.4438230073246</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44670</v>
       </c>
       <c r="B22" t="n">
-        <v>74.39685712447451</v>
+        <v>74.27047123011837</v>
       </c>
       <c r="C22" t="n">
-        <v>11.37504158200361</v>
+        <v>15.97427484644515</v>
       </c>
       <c r="D22" t="n">
-        <v>132.5720151261787</v>
+        <v>133.4761052685326</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>44698</v>
       </c>
       <c r="B23" t="n">
-        <v>44.54149175054287</v>
+        <v>44.49008696048903</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.75946172671856</v>
+        <v>-12.53761803197425</v>
       </c>
       <c r="D23" t="n">
-        <v>103.9270815941713</v>
+        <v>101.0061018755462</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44708</v>
       </c>
       <c r="B24" t="n">
-        <v>29.83346159329694</v>
+        <v>29.88419553099953</v>
       </c>
       <c r="C24" t="n">
-        <v>-27.10414142109695</v>
+        <v>-28.39288725056589</v>
       </c>
       <c r="D24" t="n">
-        <v>87.47412179029031</v>
+        <v>90.05595778167601</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44719</v>
       </c>
       <c r="B25" t="n">
-        <v>56.62909318574807</v>
+        <v>56.62901345862563</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.103381665629048</v>
+        <v>-0.4450660741591638</v>
       </c>
       <c r="D25" t="n">
-        <v>110.984500944593</v>
+        <v>116.3632582734806</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44726</v>
       </c>
       <c r="B26" t="n">
-        <v>40.30158547162295</v>
+        <v>40.30013948844852</v>
       </c>
       <c r="C26" t="n">
-        <v>-18.75759282964312</v>
+        <v>-20.43488135648605</v>
       </c>
       <c r="D26" t="n">
-        <v>98.1510299176135</v>
+        <v>99.92607460269529</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44743</v>
       </c>
       <c r="B27" t="n">
-        <v>-30.71348609802776</v>
+        <v>-30.71381483101754</v>
       </c>
       <c r="C27" t="n">
-        <v>-85.4667470688902</v>
+        <v>-85.72793384748344</v>
       </c>
       <c r="D27" t="n">
-        <v>31.44942908022998</v>
+        <v>29.10030453534163</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -996,13 +996,13 @@
         <v>44747</v>
       </c>
       <c r="B28" t="n">
-        <v>-17.04427021402526</v>
+        <v>-17.04454978986355</v>
       </c>
       <c r="C28" t="n">
-        <v>-74.60951672303786</v>
+        <v>-76.16247309231746</v>
       </c>
       <c r="D28" t="n">
-        <v>41.79236261474566</v>
+        <v>44.51125935893232</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44761</v>
       </c>
       <c r="B29" t="n">
-        <v>-15.75541482370595</v>
+        <v>-15.06821129837296</v>
       </c>
       <c r="C29" t="n">
-        <v>-76.45013275469377</v>
+        <v>-75.51097101810072</v>
       </c>
       <c r="D29" t="n">
-        <v>42.05110324767543</v>
+        <v>43.17423705045837</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44768</v>
       </c>
       <c r="B30" t="n">
-        <v>5.611274730534284</v>
+        <v>5.591108165462879</v>
       </c>
       <c r="C30" t="n">
-        <v>-58.44902899660484</v>
+        <v>-53.30505144664195</v>
       </c>
       <c r="D30" t="n">
-        <v>64.35696963643811</v>
+        <v>64.17955215445753</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44799</v>
       </c>
       <c r="B31" t="n">
-        <v>7.893777942536241</v>
+        <v>7.893778433520362</v>
       </c>
       <c r="C31" t="n">
-        <v>-48.40910740592055</v>
+        <v>-50.75174135045093</v>
       </c>
       <c r="D31" t="n">
-        <v>64.55656960186147</v>
+        <v>64.32257789585437</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44803</v>
       </c>
       <c r="B32" t="n">
-        <v>36.92519738431632</v>
+        <v>36.92520054233504</v>
       </c>
       <c r="C32" t="n">
-        <v>-21.01200710879026</v>
+        <v>-16.52943744215535</v>
       </c>
       <c r="D32" t="n">
-        <v>93.06462244380816</v>
+        <v>97.29100000845408</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1096,13 +1096,13 @@
         <v>44806</v>
       </c>
       <c r="B33" t="n">
-        <v>17.05209798484657</v>
+        <v>17.05210005629851</v>
       </c>
       <c r="C33" t="n">
-        <v>-42.90248586928186</v>
+        <v>-41.75375021027703</v>
       </c>
       <c r="D33" t="n">
-        <v>75.13343827555447</v>
+        <v>76.17546079550517</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1116,13 +1116,13 @@
         <v>44810</v>
       </c>
       <c r="B34" t="n">
-        <v>41.65541925319938</v>
+        <v>41.65542134794037</v>
       </c>
       <c r="C34" t="n">
-        <v>-14.58696726813887</v>
+        <v>-20.53255060567894</v>
       </c>
       <c r="D34" t="n">
-        <v>105.4655634567694</v>
+        <v>102.0859969673729</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -1136,13 +1136,13 @@
         <v>44817</v>
       </c>
       <c r="B35" t="n">
-        <v>27.59820865331141</v>
+        <v>27.59739901436832</v>
       </c>
       <c r="C35" t="n">
-        <v>-25.69212272873634</v>
+        <v>-34.02991551235404</v>
       </c>
       <c r="D35" t="n">
-        <v>84.09037033900562</v>
+        <v>83.19887029751158</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44831</v>
       </c>
       <c r="B36" t="n">
-        <v>14.63220927942317</v>
+        <v>14.63146876059129</v>
       </c>
       <c r="C36" t="n">
-        <v>-51.399210221956</v>
+        <v>-46.42495587281535</v>
       </c>
       <c r="D36" t="n">
-        <v>73.23021903822016</v>
+        <v>74.9738006927675</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44838</v>
       </c>
       <c r="B37" t="n">
-        <v>47.03530531168612</v>
+        <v>47.03312576337803</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.42145499457139</v>
+        <v>-12.39594678273781</v>
       </c>
       <c r="D37" t="n">
-        <v>104.7827186799315</v>
+        <v>106.7937774484186</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1196,13 +1196,13 @@
         <v>44845</v>
       </c>
       <c r="B38" t="n">
-        <v>88.36594236092135</v>
+        <v>88.36515394230773</v>
       </c>
       <c r="C38" t="n">
-        <v>30.87125107420123</v>
+        <v>32.33822573901507</v>
       </c>
       <c r="D38" t="n">
-        <v>151.7179690699852</v>
+        <v>144.2851983193814</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44852</v>
       </c>
       <c r="B39" t="n">
-        <v>94.22643798204143</v>
+        <v>94.22675968872679</v>
       </c>
       <c r="C39" t="n">
-        <v>39.79920706381849</v>
+        <v>39.73371516417412</v>
       </c>
       <c r="D39" t="n">
-        <v>157.1749696448061</v>
+        <v>156.6121727290942</v>
       </c>
       <c r="E39" t="n">
         <v>40</v>
@@ -1236,13 +1236,13 @@
         <v>44862</v>
       </c>
       <c r="B40" t="n">
-        <v>13.42265992014354</v>
+        <v>13.2379457581658</v>
       </c>
       <c r="C40" t="n">
-        <v>-44.42243265819305</v>
+        <v>-42.4099250379614</v>
       </c>
       <c r="D40" t="n">
-        <v>70.65208081476449</v>
+        <v>69.58689398003912</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44865</v>
       </c>
       <c r="B41" t="n">
-        <v>-20.22555968781606</v>
+        <v>-20.45874527460245</v>
       </c>
       <c r="C41" t="n">
-        <v>-81.14313312800145</v>
+        <v>-75.29877924620578</v>
       </c>
       <c r="D41" t="n">
-        <v>35.32438525421737</v>
+        <v>34.2859274691391</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44873</v>
       </c>
       <c r="B42" t="n">
-        <v>-20.65040715960776</v>
+        <v>-20.65045867290292</v>
       </c>
       <c r="C42" t="n">
-        <v>-76.20549770190755</v>
+        <v>-76.57111164571813</v>
       </c>
       <c r="D42" t="n">
-        <v>36.0167413419943</v>
+        <v>36.94911089902185</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -1296,13 +1296,13 @@
         <v>44887</v>
       </c>
       <c r="B43" t="n">
-        <v>24.29155656944515</v>
+        <v>24.52984288860573</v>
       </c>
       <c r="C43" t="n">
-        <v>-29.82816858358897</v>
+        <v>-32.66645524730702</v>
       </c>
       <c r="D43" t="n">
-        <v>81.72671077167767</v>
+        <v>83.06813016811103</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1377,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1319.75995924961</v>
+        <v>1319.730646687335</v>
       </c>
       <c r="C2" t="n">
-        <v>36.32850064686967</v>
+        <v>36.32809720708387</v>
       </c>
       <c r="D2" t="n">
-        <v>20.62971805127719</v>
+        <v>20.61058457058824</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9128103401990775</v>
+        <v>0.910530693372905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4916730796648469</v>
+        <v>0.4942097765499767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.806779253599185</v>
+        <v>0.8050772416101858</v>
       </c>
       <c r="H2" t="n">
         <v>0.8571428571428571</v>
@@ -1403,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1387.960098931153</v>
+        <v>1391.717697088848</v>
       </c>
       <c r="C3" t="n">
-        <v>37.25533651614427</v>
+        <v>37.30573276440028</v>
       </c>
       <c r="D3" t="n">
-        <v>32.16954399323951</v>
+        <v>32.22728536620491</v>
       </c>
       <c r="E3" t="n">
-        <v>2.292424647680495</v>
+        <v>2.298107210281662</v>
       </c>
       <c r="F3" t="n">
-        <v>2.617166140870648</v>
+        <v>2.618011810146749</v>
       </c>
       <c r="G3" t="n">
-        <v>1.701694813399796</v>
+        <v>1.701269310402546</v>
       </c>
       <c r="H3" t="n">
         <v>0.9642857142857142</v>
@@ -1429,22 +1429,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1697.608034048757</v>
+        <v>1703.039564633274</v>
       </c>
       <c r="C4" t="n">
-        <v>41.20203919769939</v>
+        <v>41.26789993000946</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7697706860088</v>
+        <v>31.84477538344723</v>
       </c>
       <c r="E4" t="n">
-        <v>1.813409336614498</v>
+        <v>1.820401003976514</v>
       </c>
       <c r="F4" t="n">
-        <v>1.121099646902984</v>
+        <v>1.121075429759617</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9359663910651097</v>
+        <v>0.9370588013147989</v>
       </c>
       <c r="H4" t="n">
         <v>0.875</v>

--- a/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421392/OBAFAR4421392_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44516</v>
       </c>
       <c r="B2" t="n">
-        <v>8.088107477352956</v>
+        <v>16.50446416707754</v>
       </c>
       <c r="C2" t="n">
-        <v>-48.73115503604208</v>
+        <v>-39.35594207951079</v>
       </c>
       <c r="D2" t="n">
-        <v>68.89649680012933</v>
+        <v>74.40185291177562</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -496,13 +496,13 @@
         <v>44523</v>
       </c>
       <c r="B3" t="n">
-        <v>65.01188752719366</v>
+        <v>63.22269898276684</v>
       </c>
       <c r="C3" t="n">
-        <v>7.347295071737465</v>
+        <v>8.388266126931676</v>
       </c>
       <c r="D3" t="n">
-        <v>121.8116009115723</v>
+        <v>121.8746698998016</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -516,13 +516,13 @@
         <v>44544</v>
       </c>
       <c r="B4" t="n">
-        <v>29.75447839874816</v>
+        <v>30.40407768029918</v>
       </c>
       <c r="C4" t="n">
-        <v>-30.83688517221573</v>
+        <v>-23.10583586198155</v>
       </c>
       <c r="D4" t="n">
-        <v>89.55435849618496</v>
+        <v>95.15610570132358</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -536,13 +536,13 @@
         <v>44551</v>
       </c>
       <c r="B5" t="n">
-        <v>3.44861958845347</v>
+        <v>6.078977114342921</v>
       </c>
       <c r="C5" t="n">
-        <v>-57.90901543064134</v>
+        <v>-56.83465575852656</v>
       </c>
       <c r="D5" t="n">
-        <v>60.89835619950547</v>
+        <v>61.11694112081008</v>
       </c>
       <c r="E5" t="n">
         <v>80</v>
@@ -556,13 +556,13 @@
         <v>44558</v>
       </c>
       <c r="B6" t="n">
-        <v>20.21092901770413</v>
+        <v>18.43908185081289</v>
       </c>
       <c r="C6" t="n">
-        <v>-40.65007236896773</v>
+        <v>-42.11807780484185</v>
       </c>
       <c r="D6" t="n">
-        <v>83.09168566566328</v>
+        <v>77.04922652243006</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -576,13 +576,13 @@
         <v>44565</v>
       </c>
       <c r="B7" t="n">
-        <v>22.85258604374901</v>
+        <v>26.66564913880094</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.04628858782455</v>
+        <v>-31.8376306289881</v>
       </c>
       <c r="D7" t="n">
-        <v>82.1361308638286</v>
+        <v>84.39188292059531</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>44582</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.01067818230452</v>
+        <v>-15.09605246919808</v>
       </c>
       <c r="C8" t="n">
-        <v>-76.29206058718086</v>
+        <v>-72.4768648796348</v>
       </c>
       <c r="D8" t="n">
-        <v>39.35335643592195</v>
+        <v>45.07827905022558</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44586</v>
       </c>
       <c r="B9" t="n">
-        <v>11.94242452312302</v>
+        <v>12.55068801819655</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.85541430964442</v>
+        <v>-48.35056949384214</v>
       </c>
       <c r="D9" t="n">
-        <v>74.28737588515641</v>
+        <v>71.69248475295308</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -636,13 +636,13 @@
         <v>44592</v>
       </c>
       <c r="B10" t="n">
-        <v>-30.95915083338799</v>
+        <v>-35.29746866581416</v>
       </c>
       <c r="C10" t="n">
-        <v>-91.57659258676104</v>
+        <v>-96.39565625941228</v>
       </c>
       <c r="D10" t="n">
-        <v>26.86915360506905</v>
+        <v>26.21168343011766</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -656,13 +656,13 @@
         <v>44600</v>
       </c>
       <c r="B11" t="n">
-        <v>60.38193693100355</v>
+        <v>59.74921978069457</v>
       </c>
       <c r="C11" t="n">
-        <v>5.576062292419751</v>
+        <v>0.8549611128678682</v>
       </c>
       <c r="D11" t="n">
-        <v>119.3266718047619</v>
+        <v>116.7516400689477</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44607</v>
       </c>
       <c r="B12" t="n">
-        <v>50.31097703514655</v>
+        <v>52.05533675201519</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.333607747618018</v>
+        <v>-2.916620898045046</v>
       </c>
       <c r="D12" t="n">
-        <v>112.4321132177472</v>
+        <v>113.1021119733385</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -696,13 +696,13 @@
         <v>44614</v>
       </c>
       <c r="B13" t="n">
-        <v>36.00887806629634</v>
+        <v>37.93723466094182</v>
       </c>
       <c r="C13" t="n">
-        <v>-27.37891282733487</v>
+        <v>-21.52717137477211</v>
       </c>
       <c r="D13" t="n">
-        <v>97.93933217532945</v>
+        <v>93.97853086371634</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -716,13 +716,13 @@
         <v>44620</v>
       </c>
       <c r="B14" t="n">
-        <v>-16.88066078624098</v>
+        <v>-15.52760196353822</v>
       </c>
       <c r="C14" t="n">
-        <v>-73.80379397763949</v>
+        <v>-72.07321018293487</v>
       </c>
       <c r="D14" t="n">
-        <v>40.33868340494067</v>
+        <v>41.74401676982372</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>44624</v>
       </c>
       <c r="B15" t="n">
-        <v>12.26913606885217</v>
+        <v>15.5065418917178</v>
       </c>
       <c r="C15" t="n">
-        <v>-47.33304646174572</v>
+        <v>-44.22446736724674</v>
       </c>
       <c r="D15" t="n">
-        <v>69.91395766807179</v>
+        <v>74.8230160793114</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -756,13 +756,13 @@
         <v>44628</v>
       </c>
       <c r="B16" t="n">
-        <v>45.56245357665731</v>
+        <v>45.96828794182551</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.93812321695107</v>
+        <v>-12.18126613343037</v>
       </c>
       <c r="D16" t="n">
-        <v>104.6510973290188</v>
+        <v>101.396929243519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44635</v>
       </c>
       <c r="B17" t="n">
-        <v>57.12271039571289</v>
+        <v>59.34340342252457</v>
       </c>
       <c r="C17" t="n">
-        <v>2.842930502046029</v>
+        <v>-2.244458482196037</v>
       </c>
       <c r="D17" t="n">
-        <v>115.6298940045295</v>
+        <v>116.1130504173246</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -796,13 +796,13 @@
         <v>44642</v>
       </c>
       <c r="B18" t="n">
-        <v>61.16245327399454</v>
+        <v>63.28862043531669</v>
       </c>
       <c r="C18" t="n">
-        <v>5.29584635657156</v>
+        <v>9.649020572051146</v>
       </c>
       <c r="D18" t="n">
-        <v>121.6936844514509</v>
+        <v>118.0390804904464</v>
       </c>
       <c r="E18" t="n">
         <v>70</v>
@@ -816,13 +816,13 @@
         <v>44649</v>
       </c>
       <c r="B19" t="n">
-        <v>57.58875804379598</v>
+        <v>60.99961538096547</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.778171588294727</v>
+        <v>5.140469279498935</v>
       </c>
       <c r="D19" t="n">
-        <v>114.335104345688</v>
+        <v>114.8063306069719</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -836,13 +836,13 @@
         <v>44656</v>
       </c>
       <c r="B20" t="n">
-        <v>46.27930745447294</v>
+        <v>43.53665668720598</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.78501360701486</v>
+        <v>-11.20202474242807</v>
       </c>
       <c r="D20" t="n">
-        <v>103.7344052294932</v>
+        <v>98.1853863352755</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -856,13 +856,13 @@
         <v>44663</v>
       </c>
       <c r="B21" t="n">
-        <v>50.04188201012024</v>
+        <v>47.65527475688455</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.356499678944764</v>
+        <v>-8.433719050401871</v>
       </c>
       <c r="D21" t="n">
-        <v>108.4438230073246</v>
+        <v>102.5809149866418</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44670</v>
       </c>
       <c r="B22" t="n">
-        <v>74.27047123011837</v>
+        <v>83.93304435414453</v>
       </c>
       <c r="C22" t="n">
-        <v>15.97427484644515</v>
+        <v>29.08998686026095</v>
       </c>
       <c r="D22" t="n">
-        <v>133.4761052685326</v>
+        <v>142.0828427504891</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>44698</v>
       </c>
       <c r="B23" t="n">
-        <v>44.49008696048903</v>
+        <v>36.760727418024</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.53761803197425</v>
+        <v>-18.62407373100318</v>
       </c>
       <c r="D23" t="n">
-        <v>101.0061018755462</v>
+        <v>92.92857492505856</v>
       </c>
       <c r="E23" t="n">
         <v>40</v>
@@ -916,13 +916,13 @@
         <v>44708</v>
       </c>
       <c r="B24" t="n">
-        <v>29.88419553099953</v>
+        <v>1.765190751794743</v>
       </c>
       <c r="C24" t="n">
-        <v>-28.39288725056589</v>
+        <v>-58.08520763256313</v>
       </c>
       <c r="D24" t="n">
-        <v>90.05595778167601</v>
+        <v>56.73054638891775</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -936,13 +936,13 @@
         <v>44719</v>
       </c>
       <c r="B25" t="n">
-        <v>56.62901345862563</v>
+        <v>42.4879378322885</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4450660741591638</v>
+        <v>-14.56379481875171</v>
       </c>
       <c r="D25" t="n">
-        <v>116.3632582734806</v>
+        <v>101.9714547263947</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44726</v>
       </c>
       <c r="B26" t="n">
-        <v>40.30013948844852</v>
+        <v>43.09987674898318</v>
       </c>
       <c r="C26" t="n">
-        <v>-20.43488135648605</v>
+        <v>-13.32364442938393</v>
       </c>
       <c r="D26" t="n">
-        <v>99.92607460269529</v>
+        <v>99.87929342949488</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -976,13 +976,13 @@
         <v>44743</v>
       </c>
       <c r="B27" t="n">
-        <v>-30.71381483101754</v>
+        <v>-25.02656320952184</v>
       </c>
       <c r="C27" t="n">
-        <v>-85.72793384748344</v>
+        <v>-80.12275482259143</v>
       </c>
       <c r="D27" t="n">
-        <v>29.10030453534163</v>
+        <v>30.75507692079005</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -996,13 +996,13 @@
         <v>44747</v>
       </c>
       <c r="B28" t="n">
-        <v>-17.04454978986355</v>
+        <v>-17.23639114543166</v>
       </c>
       <c r="C28" t="n">
-        <v>-76.16247309231746</v>
+        <v>-78.64841156860511</v>
       </c>
       <c r="D28" t="n">
-        <v>44.51125935893232</v>
+        <v>38.43932375729025</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44761</v>
       </c>
       <c r="B29" t="n">
-        <v>-15.06821129837296</v>
+        <v>-15.61988280479046</v>
       </c>
       <c r="C29" t="n">
-        <v>-75.51097101810072</v>
+        <v>-71.8249432790037</v>
       </c>
       <c r="D29" t="n">
-        <v>43.17423705045837</v>
+        <v>42.62748865479666</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44768</v>
       </c>
       <c r="B30" t="n">
-        <v>5.591108165462879</v>
+        <v>9.983344808833504</v>
       </c>
       <c r="C30" t="n">
-        <v>-53.30505144664195</v>
+        <v>-48.71937034894373</v>
       </c>
       <c r="D30" t="n">
-        <v>64.17955215445753</v>
+        <v>65.94788439452202</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44799</v>
       </c>
       <c r="B31" t="n">
-        <v>7.893778433520362</v>
+        <v>12.93409103846381</v>
       </c>
       <c r="C31" t="n">
-        <v>-50.75174135045093</v>
+        <v>-44.30643910405695</v>
       </c>
       <c r="D31" t="n">
-        <v>64.32257789585437</v>
+        <v>70.57335315003127</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1076,13 +1076,13 @@
         <v>44803</v>
       </c>
       <c r="B32" t="n">
-        <v>36.92520054233504</v>
+        <v>39.4371546118484</v>
       </c>
       <c r="C32" t="n">
-        <v>-16.52943744215535</v>
+        <v>-18.53255944156272</v>
       </c>
       <c r="D32" t="n">
-        <v>97.29100000845408</v>
+        <v>91.58468516478808</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1096,13 +1096,13 @@
         <v>44806</v>
       </c>
       <c r="B33" t="n">
-        <v>17.05210005629851</v>
+        <v>18.5106610477014</v>
       </c>
       <c r="C33" t="n">
-        <v>-41.75375021027703</v>
+        <v>-40.05774001986579</v>
       </c>
       <c r="D33" t="n">
-        <v>76.17546079550517</v>
+        <v>71.77953709486685</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1116,13 +1116,13 @@
         <v>44810</v>
       </c>
       <c r="B34" t="n">
-        <v>41.65542134794037</v>
+        <v>41.29601695512189</v>
       </c>
       <c r="C34" t="n">
-        <v>-20.53255060567894</v>
+        <v>-18.98624527693096</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0859969673729</v>
+        <v>93.73885357951769</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -1136,13 +1136,13 @@
         <v>44817</v>
       </c>
       <c r="B35" t="n">
-        <v>27.59739901436832</v>
+        <v>25.5621924336197</v>
       </c>
       <c r="C35" t="n">
-        <v>-34.02991551235404</v>
+        <v>-32.57374733144589</v>
       </c>
       <c r="D35" t="n">
-        <v>83.19887029751158</v>
+        <v>81.79163424775375</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1156,13 +1156,13 @@
         <v>44831</v>
       </c>
       <c r="B36" t="n">
-        <v>14.63146876059129</v>
+        <v>22.39577063294906</v>
       </c>
       <c r="C36" t="n">
-        <v>-46.42495587281535</v>
+        <v>-30.43593222424465</v>
       </c>
       <c r="D36" t="n">
-        <v>74.9738006927675</v>
+        <v>75.63447800792079</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44838</v>
       </c>
       <c r="B37" t="n">
-        <v>47.03312576337803</v>
+        <v>51.0410454341412</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.39594678273781</v>
+        <v>-5.267787662490691</v>
       </c>
       <c r="D37" t="n">
-        <v>106.7937774484186</v>
+        <v>107.4543796571702</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1196,13 +1196,13 @@
         <v>44845</v>
       </c>
       <c r="B38" t="n">
-        <v>88.36515394230773</v>
+        <v>88.8913783972625</v>
       </c>
       <c r="C38" t="n">
-        <v>32.33822573901507</v>
+        <v>32.49618360381264</v>
       </c>
       <c r="D38" t="n">
-        <v>144.2851983193814</v>
+        <v>142.2042206182953</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1216,13 +1216,13 @@
         <v>44852</v>
       </c>
       <c r="B39" t="n">
-        <v>94.22675968872679</v>
+        <v>90.71251734612216</v>
       </c>
       <c r="C39" t="n">
-        <v>39.73371516417412</v>
+        <v>34.08130874065701</v>
       </c>
       <c r="D39" t="n">
-        <v>156.6121727290942</v>
+        <v>149.2165964277559</v>
       </c>
       <c r="E39" t="n">
         <v>40</v>
@@ -1236,13 +1236,13 @@
         <v>44862</v>
       </c>
       <c r="B40" t="n">
-        <v>13.2379457581658</v>
+        <v>15.23873458367249</v>
       </c>
       <c r="C40" t="n">
-        <v>-42.4099250379614</v>
+        <v>-37.4763160980801</v>
       </c>
       <c r="D40" t="n">
-        <v>69.58689398003912</v>
+        <v>70.57479369031226</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44865</v>
       </c>
       <c r="B41" t="n">
-        <v>-20.45874527460245</v>
+        <v>-18.74489874065225</v>
       </c>
       <c r="C41" t="n">
-        <v>-75.29877924620578</v>
+        <v>-71.64983412743277</v>
       </c>
       <c r="D41" t="n">
-        <v>34.2859274691391</v>
+        <v>36.60974003420158</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44873</v>
       </c>
       <c r="B42" t="n">
-        <v>-20.65045867290292</v>
+        <v>-20.81859965059502</v>
       </c>
       <c r="C42" t="n">
-        <v>-76.57111164571813</v>
+        <v>-73.63233294057574</v>
       </c>
       <c r="D42" t="n">
-        <v>36.94911089902185</v>
+        <v>35.4118776750154</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -1296,13 +1296,13 @@
         <v>44887</v>
       </c>
       <c r="B43" t="n">
-        <v>24.52984288860573</v>
+        <v>24.72382728378435</v>
       </c>
       <c r="C43" t="n">
-        <v>-32.66645524730702</v>
+        <v>-29.94760412956409</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06813016811103</v>
+        <v>80.4416817396056</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1377,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1319.730646687335</v>
+        <v>1190.091879201751</v>
       </c>
       <c r="C2" t="n">
-        <v>36.32809720708387</v>
+        <v>34.49770831811514</v>
       </c>
       <c r="D2" t="n">
-        <v>20.61058457058824</v>
+        <v>21.50677906978296</v>
       </c>
       <c r="E2" t="n">
-        <v>0.910530693372905</v>
+        <v>1.008208278901569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4942097765499767</v>
+        <v>0.8510661047701398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8050772416101858</v>
+        <v>1.05362725318962</v>
       </c>
       <c r="H2" t="n">
         <v>0.8571428571428571</v>
@@ -1403,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1391.717697088848</v>
+        <v>1431.45739641691</v>
       </c>
       <c r="C3" t="n">
-        <v>37.30573276440028</v>
+        <v>37.83460580496261</v>
       </c>
       <c r="D3" t="n">
-        <v>32.22728536620491</v>
+        <v>32.7691871099469</v>
       </c>
       <c r="E3" t="n">
-        <v>2.298107210281662</v>
+        <v>2.300082945652831</v>
       </c>
       <c r="F3" t="n">
-        <v>2.618011810146749</v>
+        <v>2.658816814822266</v>
       </c>
       <c r="G3" t="n">
-        <v>1.701269310402546</v>
+        <v>1.763406813297405</v>
       </c>
       <c r="H3" t="n">
         <v>0.9642857142857142</v>
@@ -1429,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1703.039564633274</v>
+        <v>1737.677095370469</v>
       </c>
       <c r="C4" t="n">
-        <v>41.26789993000946</v>
+        <v>41.68545424210307</v>
       </c>
       <c r="D4" t="n">
-        <v>31.84477538344723</v>
+        <v>32.02350789444984</v>
       </c>
       <c r="E4" t="n">
-        <v>1.820401003976514</v>
+        <v>1.84385210010352</v>
       </c>
       <c r="F4" t="n">
-        <v>1.121075429759617</v>
+        <v>1.25369499847398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9370588013147989</v>
+        <v>0.9171714117981447</v>
       </c>
       <c r="H4" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
     </row>
   </sheetData>
